--- a/biology/Zoologie/Histiodella/Histiodella.xlsx
+++ b/biology/Zoologie/Histiodella/Histiodella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Histiodella est un genre de conodontes.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Histiodella a été créé en 1962 par le paléontologue américain Reginald Wilson Harris (d).
 </t>
@@ -542,7 +556,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>† Histiodella altifrons
 † Histiodella holodentata
@@ -575,7 +591,9 @@
           <t>Utilisation en stratigraphie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La base du Darriwilien, le quatrième étage de l'Ordovicien, repose juste au dessus de la zone Nord-Atlantique du conodonte Microzarkodina parva. 
 La base repose aussi sur la partie supérieure de la zone nord-américaine de Histiodella altifrons.
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) R.W. Harris, « New conodonts from Joins (Ordovician) Formation of Oklahoma », Oklahoma Geology Notes, 1962.</t>
         </is>
